--- a/Fraction.xlsx
+++ b/Fraction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lorim\Documents\GitHub\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26ACF00-45DB-4CFD-9A64-368F95418771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931000ED-14D5-4E6A-A70E-2F490957DE1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E6DCF74F-83CD-4811-BA0D-E7984132E615}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
